--- a/VarexJSmallScaleEvaluation/Results/Nesting/ALLNesting.xlsx
+++ b/VarexJSmallScaleEvaluation/Results/Nesting/ALLNesting.xlsx
@@ -813,8 +813,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114714624"/>
-        <c:axId val="114428160"/>
+        <c:axId val="121615360"/>
+        <c:axId val="82880768"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -917,11 +917,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114715648"/>
-        <c:axId val="114428736"/>
+        <c:axId val="121616384"/>
+        <c:axId val="82881344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114714624"/>
+        <c:axId val="121615360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,7 +930,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114428160"/>
+        <c:crossAx val="82880768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -938,7 +938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114428160"/>
+        <c:axId val="82880768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,12 +949,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114714624"/>
+        <c:crossAx val="121615360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="114428736"/>
+        <c:axId val="82881344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -964,12 +964,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114715648"/>
+        <c:crossAx val="121616384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="114715648"/>
+        <c:axId val="121616384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -978,7 +978,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114428736"/>
+        <c:crossAx val="82881344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1120,8 +1120,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114876416"/>
-        <c:axId val="114430464"/>
+        <c:axId val="85506560"/>
+        <c:axId val="82883072"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1224,11 +1224,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114878464"/>
-        <c:axId val="114431040"/>
+        <c:axId val="122500096"/>
+        <c:axId val="82883648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114876416"/>
+        <c:axId val="85506560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114430464"/>
+        <c:crossAx val="82883072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1245,7 +1245,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114430464"/>
+        <c:axId val="82883072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1256,12 +1256,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114876416"/>
+        <c:crossAx val="85506560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="114431040"/>
+        <c:axId val="82883648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1271,12 +1271,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114878464"/>
+        <c:crossAx val="122500096"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="114878464"/>
+        <c:axId val="122500096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1285,7 +1285,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114431040"/>
+        <c:crossAx val="82883648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1356,304 +1356,304 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.5</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.5</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55.5</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>69.5</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>73</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>80</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>83.5</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>87</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>94</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>97.5</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>101</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>108</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>111.5</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>115</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>122</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>125.5</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>129</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>136</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>139.5</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>143</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>150</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>153.5</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>157</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>164</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>167.5</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>171</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>178</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>181.5</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>185</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>192</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>195.5</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>199</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>206</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>209.5</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>213</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>220</c:v>
+                  <c:v>318</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>223.5</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>227</c:v>
+                  <c:v>332</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>234</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>237.5</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>241</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>248</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>251.5</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>255</c:v>
+                  <c:v>374</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>262</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>265.5</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>269</c:v>
+                  <c:v>395</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>276</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>279.5</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>283</c:v>
+                  <c:v>416</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>290</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>293.5</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>297</c:v>
+                  <c:v>437</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>304</c:v>
+                  <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>307.5</c:v>
+                  <c:v>451</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>311</c:v>
+                  <c:v>458</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>318</c:v>
+                  <c:v>465</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>321.5</c:v>
+                  <c:v>472</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>325</c:v>
+                  <c:v>479</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>332</c:v>
+                  <c:v>486</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>335.5</c:v>
+                  <c:v>493</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>339</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>346</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>349.5</c:v>
+                  <c:v>514</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>353</c:v>
+                  <c:v>521</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>360</c:v>
+                  <c:v>528</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>363.5</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>367</c:v>
+                  <c:v>542</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>374</c:v>
+                  <c:v>549</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>377.5</c:v>
+                  <c:v>556</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>381</c:v>
+                  <c:v>563</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>388</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>391.5</c:v>
+                  <c:v>577</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>395</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>402</c:v>
+                  <c:v>591</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>405.5</c:v>
+                  <c:v>598</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>409</c:v>
+                  <c:v>605</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>416</c:v>
+                  <c:v>612</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>419.5</c:v>
+                  <c:v>619</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>423</c:v>
+                  <c:v>626</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>430</c:v>
+                  <c:v>633</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>433.5</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>437</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>444</c:v>
+                  <c:v>654</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>447.5</c:v>
+                  <c:v>661</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>451</c:v>
+                  <c:v>668</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>458</c:v>
+                  <c:v>675</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>461.5</c:v>
+                  <c:v>682</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>465</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>472</c:v>
+                  <c:v>696</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>475.5</c:v>
+                  <c:v>703</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>479</c:v>
+                  <c:v>710</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>486</c:v>
+                  <c:v>717</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>489.5</c:v>
+                  <c:v>724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1670,8 +1670,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114880000"/>
-        <c:axId val="114432768"/>
+        <c:axId val="122501120"/>
+        <c:axId val="82885376"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2017,11 +2017,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115757568"/>
-        <c:axId val="114433344"/>
+        <c:axId val="121617920"/>
+        <c:axId val="82885952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114880000"/>
+        <c:axId val="122501120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2030,7 +2030,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114432768"/>
+        <c:crossAx val="82885376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2038,7 +2038,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114432768"/>
+        <c:axId val="82885376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2049,12 +2049,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114880000"/>
+        <c:crossAx val="122501120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="114433344"/>
+        <c:axId val="82885952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2064,12 +2064,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115757568"/>
+        <c:crossAx val="121617920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="115757568"/>
+        <c:axId val="121617920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2078,7 +2078,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114433344"/>
+        <c:crossAx val="82885952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5065,11 +5065,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115760640"/>
-        <c:axId val="115573888"/>
+        <c:axId val="122673152"/>
+        <c:axId val="122438784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115760640"/>
+        <c:axId val="122673152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5098,7 +5098,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115573888"/>
+        <c:crossAx val="122438784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5108,7 +5108,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115573888"/>
+        <c:axId val="122438784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5138,7 +5138,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115760640"/>
+        <c:crossAx val="122673152"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7167,304 +7167,304 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.5</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.5</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55.5</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>69.5</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>73</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>80</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>83.5</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>87</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>94</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>97.5</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>101</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>108</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>111.5</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>115</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>122</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>125.5</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>129</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>136</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>139.5</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>143</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>150</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>153.5</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>157</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>164</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>167.5</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>171</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>178</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>181.5</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>185</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>192</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>195.5</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>199</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>206</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>209.5</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>213</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>220</c:v>
+                  <c:v>318</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>223.5</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>227</c:v>
+                  <c:v>332</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>234</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>237.5</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>241</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>248</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>251.5</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>255</c:v>
+                  <c:v>374</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>262</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>265.5</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>269</c:v>
+                  <c:v>395</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>276</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>279.5</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>283</c:v>
+                  <c:v>416</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>290</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>293.5</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>297</c:v>
+                  <c:v>437</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>304</c:v>
+                  <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>307.5</c:v>
+                  <c:v>451</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>311</c:v>
+                  <c:v>458</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>318</c:v>
+                  <c:v>465</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>321.5</c:v>
+                  <c:v>472</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>325</c:v>
+                  <c:v>479</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>332</c:v>
+                  <c:v>486</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>335.5</c:v>
+                  <c:v>493</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>339</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>346</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>349.5</c:v>
+                  <c:v>514</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>353</c:v>
+                  <c:v>521</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>360</c:v>
+                  <c:v>528</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>363.5</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>367</c:v>
+                  <c:v>542</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>374</c:v>
+                  <c:v>549</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>377.5</c:v>
+                  <c:v>556</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>381</c:v>
+                  <c:v>563</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>388</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>391.5</c:v>
+                  <c:v>577</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>395</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>402</c:v>
+                  <c:v>591</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>405.5</c:v>
+                  <c:v>598</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>409</c:v>
+                  <c:v>605</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>416</c:v>
+                  <c:v>612</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>419.5</c:v>
+                  <c:v>619</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>423</c:v>
+                  <c:v>626</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>430</c:v>
+                  <c:v>633</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>433.5</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>437</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>444</c:v>
+                  <c:v>654</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>447.5</c:v>
+                  <c:v>661</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>451</c:v>
+                  <c:v>668</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>458</c:v>
+                  <c:v>675</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>461.5</c:v>
+                  <c:v>682</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>465</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>472</c:v>
+                  <c:v>696</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>475.5</c:v>
+                  <c:v>703</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>479</c:v>
+                  <c:v>710</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>486</c:v>
+                  <c:v>717</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>489.5</c:v>
+                  <c:v>724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7481,11 +7481,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115979264"/>
-        <c:axId val="115576192"/>
+        <c:axId val="122674688"/>
+        <c:axId val="122441088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115979264"/>
+        <c:axId val="122674688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7514,7 +7514,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115576192"/>
+        <c:crossAx val="122441088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7524,7 +7524,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115576192"/>
+        <c:axId val="122441088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7554,7 +7554,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115979264"/>
+        <c:crossAx val="122674688"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9583,7 +9583,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.5</c:v>
+                  <c:v>21.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>21</c:v>
@@ -9595,7 +9595,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>21.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>21</c:v>
@@ -9604,22 +9604,22 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>23</c:v>
@@ -9646,241 +9646,241 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>23</c:v>
+                  <c:v>24.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>24</c:v>
+                  <c:v>25.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>24.5</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>24.5</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>25</c:v>
+                  <c:v>27.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>25</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>25</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>25</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>25</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>25</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>25.5</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>26</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>26</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>26</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>26</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>26</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>26</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>26</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>26</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>26</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>26</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>26</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>26</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>27</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>27</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>27</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>27</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>27.5</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>27</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>27</c:v>
+                  <c:v>32.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>27</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>27</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>27</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>28</c:v>
+                  <c:v>33.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>29</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>29</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>29</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>29</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>29</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>29</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>29</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>29</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>29</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>29</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>30</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>30</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>30</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>30</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>30</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10228,11 +10228,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115979776"/>
-        <c:axId val="115578496"/>
+        <c:axId val="85507072"/>
+        <c:axId val="122443392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115979776"/>
+        <c:axId val="85507072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10261,7 +10261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115578496"/>
+        <c:crossAx val="122443392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10271,7 +10271,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115578496"/>
+        <c:axId val="122443392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -10301,7 +10301,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115979776"/>
+        <c:crossAx val="85507072"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -29888,8 +29888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G558"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29941,11 +29941,11 @@
         <v>664.66666666666663</v>
       </c>
       <c r="F2" s="7">
-        <f t="shared" ref="F2:G2" ca="1" si="1">AVERAGE(OFFSET(B$2,(ROW()-2)*2,0,2))</f>
+        <f ca="1">AVERAGE(OFFSET(B$2,(ROW()-2)*3,0,3))</f>
         <v>21</v>
       </c>
       <c r="G2" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">AVERAGE(OFFSET(C$2,(ROW()-2)*3,0,3))</f>
         <v>24</v>
       </c>
     </row>
@@ -29963,16 +29963,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="7">
-        <f t="shared" ref="E3:E66" ca="1" si="2">AVERAGE(OFFSET(A$2,(ROW()-2)*3,0,3))</f>
+        <f t="shared" ref="E3:E66" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*3,0,3))</f>
         <v>665</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" ref="F3" ca="1" si="3">AVERAGE(OFFSET(B$2,(ROW()-2)*2,0,2))</f>
-        <v>21.5</v>
+        <f t="shared" ref="F3:F66" ca="1" si="2">AVERAGE(OFFSET(B$2,(ROW()-2)*3,0,3))</f>
+        <v>21.333333333333332</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3" ca="1" si="4">AVERAGE(OFFSET(C$2,(ROW()-2)*2,0,2))</f>
-        <v>27.5</v>
+        <f t="shared" ref="G3:G66" ca="1" si="3">AVERAGE(OFFSET(C$2,(ROW()-2)*3,0,3))</f>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -29989,16 +29989,16 @@
         <v>3</v>
       </c>
       <c r="E4" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>664.66666666666663</v>
+      </c>
+      <c r="F4" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>664.66666666666663</v>
-      </c>
-      <c r="F4" s="7">
-        <f t="shared" ref="F4:G17" ca="1" si="5">AVERAGE(OFFSET(B$2,(ROW()-2)*2,0,2))</f>
         <v>21</v>
       </c>
       <c r="G4" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -30015,16 +30015,16 @@
         <v>4</v>
       </c>
       <c r="E5" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>667.33333333333337</v>
+      </c>
+      <c r="F5" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>667.33333333333337</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" ca="1" si="5"/>
         <v>21</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -30041,16 +30041,16 @@
         <v>5</v>
       </c>
       <c r="E6" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>667.66666666666663</v>
+      </c>
+      <c r="F6" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>667.66666666666663</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" ca="1" si="5"/>
         <v>21</v>
       </c>
       <c r="G6" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>41.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -30067,16 +30067,16 @@
         <v>6</v>
       </c>
       <c r="E7" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>688.66666666666663</v>
+      </c>
+      <c r="F7" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>688.66666666666663</v>
-      </c>
-      <c r="F7" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>21.333333333333332</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -30093,16 +30093,16 @@
         <v>7</v>
       </c>
       <c r="E8" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>671</v>
+      </c>
+      <c r="F8" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>671</v>
-      </c>
-      <c r="F8" s="7">
-        <f t="shared" ca="1" si="5"/>
         <v>21</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -30119,16 +30119,16 @@
         <v>8</v>
       </c>
       <c r="E9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>666.66666666666663</v>
+      </c>
+      <c r="F9" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>666.66666666666663</v>
-      </c>
-      <c r="F9" s="7">
-        <f t="shared" ca="1" si="5"/>
         <v>21</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>55.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -30145,16 +30145,16 @@
         <v>9</v>
       </c>
       <c r="E10" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>665.66666666666663</v>
+      </c>
+      <c r="F10" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>665.66666666666663</v>
-      </c>
-      <c r="F10" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="G10" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -30171,16 +30171,16 @@
         <v>10</v>
       </c>
       <c r="E11" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>672.33333333333337</v>
+      </c>
+      <c r="F11" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>672.33333333333337</v>
-      </c>
-      <c r="F11" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -30197,16 +30197,16 @@
         <v>11</v>
       </c>
       <c r="E12" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>673.66666666666663</v>
+      </c>
+      <c r="F12" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>673.66666666666663</v>
-      </c>
-      <c r="F12" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>69.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -30223,16 +30223,16 @@
         <v>12</v>
       </c>
       <c r="E13" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>673.66666666666663</v>
+      </c>
+      <c r="F13" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>673.66666666666663</v>
-      </c>
-      <c r="F13" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -30249,16 +30249,16 @@
         <v>13</v>
       </c>
       <c r="E14" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>669.66666666666663</v>
+      </c>
+      <c r="F14" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>669.66666666666663</v>
-      </c>
-      <c r="F14" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -30275,16 +30275,16 @@
         <v>14</v>
       </c>
       <c r="E15" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>672.66666666666663</v>
+      </c>
+      <c r="F15" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>672.66666666666663</v>
-      </c>
-      <c r="F15" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>83.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -30301,16 +30301,16 @@
         <v>15</v>
       </c>
       <c r="E16" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>672.66666666666663</v>
+      </c>
+      <c r="F16" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>672.66666666666663</v>
-      </c>
-      <c r="F16" s="7">
-        <f t="shared" ca="1" si="5"/>
         <v>23</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -30327,16 +30327,16 @@
         <v>16</v>
       </c>
       <c r="E17" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>673</v>
+      </c>
+      <c r="F17" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>673</v>
-      </c>
-      <c r="F17" s="7">
-        <f t="shared" ca="1" si="5"/>
         <v>23</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -30353,16 +30353,16 @@
         <v>17</v>
       </c>
       <c r="E18" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>676.33333333333337</v>
+      </c>
+      <c r="F18" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>676.33333333333337</v>
-      </c>
-      <c r="F18" s="7">
-        <f t="shared" ref="F18:G22" ca="1" si="6">AVERAGE(OFFSET(B$2,(ROW()-2)*2,0,2))</f>
         <v>23</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>97.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -30379,16 +30379,16 @@
         <v>18</v>
       </c>
       <c r="E19" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>681.66666666666663</v>
+      </c>
+      <c r="F19" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>681.66666666666663</v>
-      </c>
-      <c r="F19" s="7">
-        <f t="shared" ca="1" si="6"/>
         <v>23</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>101</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -30405,16 +30405,16 @@
         <v>19</v>
       </c>
       <c r="E20" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>679.33333333333337</v>
+      </c>
+      <c r="F20" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>679.33333333333337</v>
-      </c>
-      <c r="F20" s="7">
-        <f t="shared" ca="1" si="6"/>
         <v>23</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>108</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -30431,16 +30431,16 @@
         <v>20</v>
       </c>
       <c r="E21" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>714</v>
+      </c>
+      <c r="F21" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>714</v>
-      </c>
-      <c r="F21" s="7">
-        <f t="shared" ca="1" si="6"/>
         <v>23</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>111.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -30457,16 +30457,16 @@
         <v>21</v>
       </c>
       <c r="E22" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>686.66666666666663</v>
+      </c>
+      <c r="F22" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>686.66666666666663</v>
-      </c>
-      <c r="F22" s="7">
-        <f t="shared" ca="1" si="6"/>
         <v>23</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>115</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -30483,16 +30483,16 @@
         <v>22</v>
       </c>
       <c r="E23" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>694</v>
+      </c>
+      <c r="F23" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>694</v>
-      </c>
-      <c r="F23" s="7">
-        <f t="shared" ref="F23:G86" ca="1" si="7">AVERAGE(OFFSET(B$2,(ROW()-2)*2,0,2))</f>
         <v>23</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>122</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -30509,16 +30509,16 @@
         <v>23</v>
       </c>
       <c r="E24" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>691.66666666666663</v>
+      </c>
+      <c r="F24" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>691.66666666666663</v>
-      </c>
-      <c r="F24" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>125.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -30535,16 +30535,16 @@
         <v>24</v>
       </c>
       <c r="E25" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>687</v>
+      </c>
+      <c r="F25" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>687</v>
-      </c>
-      <c r="F25" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>129</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -30561,16 +30561,16 @@
         <v>25</v>
       </c>
       <c r="E26" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>684.66666666666663</v>
+      </c>
+      <c r="F26" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>684.66666666666663</v>
-      </c>
-      <c r="F26" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>136</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -30587,16 +30587,16 @@
         <v>26</v>
       </c>
       <c r="E27" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>690.66666666666663</v>
+      </c>
+      <c r="F27" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>690.66666666666663</v>
-      </c>
-      <c r="F27" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G27" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>139.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -30613,16 +30613,16 @@
         <v>27</v>
       </c>
       <c r="E28" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>693.33333333333337</v>
+      </c>
+      <c r="F28" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>693.33333333333337</v>
-      </c>
-      <c r="F28" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>143</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -30639,16 +30639,16 @@
         <v>28</v>
       </c>
       <c r="E29" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>701.66666666666663</v>
+      </c>
+      <c r="F29" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>701.66666666666663</v>
-      </c>
-      <c r="F29" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G29" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>150</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -30665,16 +30665,16 @@
         <v>29</v>
       </c>
       <c r="E30" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>689</v>
+      </c>
+      <c r="F30" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>689</v>
-      </c>
-      <c r="F30" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>153.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -30691,16 +30691,16 @@
         <v>30</v>
       </c>
       <c r="E31" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>692.66666666666663</v>
+      </c>
+      <c r="F31" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>692.66666666666663</v>
-      </c>
-      <c r="F31" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>157</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -30717,16 +30717,16 @@
         <v>31</v>
       </c>
       <c r="E32" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>727</v>
+      </c>
+      <c r="F32" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>727</v>
-      </c>
-      <c r="F32" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>164</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -30743,16 +30743,16 @@
         <v>32</v>
       </c>
       <c r="E33" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>710.66666666666663</v>
+      </c>
+      <c r="F33" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>710.66666666666663</v>
-      </c>
-      <c r="F33" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G33" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>167.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -30769,16 +30769,16 @@
         <v>33</v>
       </c>
       <c r="E34" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>728</v>
+      </c>
+      <c r="F34" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>728</v>
-      </c>
-      <c r="F34" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>24.333333333333332</v>
       </c>
       <c r="G34" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>171</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -30795,16 +30795,16 @@
         <v>34</v>
       </c>
       <c r="E35" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>738.33333333333337</v>
+      </c>
+      <c r="F35" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>738.33333333333337</v>
-      </c>
-      <c r="F35" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>178</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -30821,16 +30821,16 @@
         <v>35</v>
       </c>
       <c r="E36" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>702</v>
+      </c>
+      <c r="F36" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>702</v>
-      </c>
-      <c r="F36" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G36" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>181.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -30847,16 +30847,16 @@
         <v>36</v>
       </c>
       <c r="E37" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>707</v>
+      </c>
+      <c r="F37" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>707</v>
-      </c>
-      <c r="F37" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>185</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -30873,16 +30873,16 @@
         <v>37</v>
       </c>
       <c r="E38" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>706.33333333333337</v>
+      </c>
+      <c r="F38" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>706.33333333333337</v>
-      </c>
-      <c r="F38" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>192</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -30899,16 +30899,16 @@
         <v>38</v>
       </c>
       <c r="E39" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>709.66666666666663</v>
+      </c>
+      <c r="F39" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>709.66666666666663</v>
-      </c>
-      <c r="F39" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G39" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>195.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -30925,16 +30925,16 @@
         <v>39</v>
       </c>
       <c r="E40" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>711</v>
+      </c>
+      <c r="F40" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>711</v>
-      </c>
-      <c r="F40" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G40" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>199</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -30951,16 +30951,16 @@
         <v>40</v>
       </c>
       <c r="E41" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>719</v>
+      </c>
+      <c r="F41" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>719</v>
-      </c>
-      <c r="F41" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G41" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>206</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -30977,16 +30977,16 @@
         <v>41</v>
       </c>
       <c r="E42" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>721.33333333333337</v>
+      </c>
+      <c r="F42" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>721.33333333333337</v>
-      </c>
-      <c r="F42" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G42" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>209.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -31003,16 +31003,16 @@
         <v>42</v>
       </c>
       <c r="E43" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>721</v>
+      </c>
+      <c r="F43" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>721</v>
-      </c>
-      <c r="F43" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>25.333333333333332</v>
       </c>
       <c r="G43" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>213</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -31029,16 +31029,16 @@
         <v>43</v>
       </c>
       <c r="E44" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>738.66666666666663</v>
+      </c>
+      <c r="F44" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>738.66666666666663</v>
-      </c>
-      <c r="F44" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G44" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>220</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -31055,16 +31055,16 @@
         <v>44</v>
       </c>
       <c r="E45" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>739</v>
+      </c>
+      <c r="F45" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>739</v>
-      </c>
-      <c r="F45" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G45" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>223.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -31081,16 +31081,16 @@
         <v>45</v>
       </c>
       <c r="E46" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>730</v>
+      </c>
+      <c r="F46" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>730</v>
-      </c>
-      <c r="F46" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G46" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>227</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -31107,16 +31107,16 @@
         <v>46</v>
       </c>
       <c r="E47" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>734.66666666666663</v>
+      </c>
+      <c r="F47" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>734.66666666666663</v>
-      </c>
-      <c r="F47" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G47" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>234</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>339</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -31133,16 +31133,16 @@
         <v>47</v>
       </c>
       <c r="E48" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>749</v>
+      </c>
+      <c r="F48" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>749</v>
-      </c>
-      <c r="F48" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G48" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>237.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -31159,16 +31159,16 @@
         <v>48</v>
       </c>
       <c r="E49" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>735.66666666666663</v>
+      </c>
+      <c r="F49" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>735.66666666666663</v>
-      </c>
-      <c r="F49" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G49" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>241</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>353</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -31185,16 +31185,16 @@
         <v>49</v>
       </c>
       <c r="E50" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>763</v>
+      </c>
+      <c r="F50" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>763</v>
-      </c>
-      <c r="F50" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>24.5</v>
+        <v>26</v>
       </c>
       <c r="G50" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>248</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>360</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -31211,16 +31211,16 @@
         <v>50</v>
       </c>
       <c r="E51" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>744</v>
+      </c>
+      <c r="F51" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>744</v>
-      </c>
-      <c r="F51" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>24.5</v>
+        <v>26</v>
       </c>
       <c r="G51" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>251.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>367</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -31237,16 +31237,16 @@
         <v>51</v>
       </c>
       <c r="E52" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>743.33333333333337</v>
+      </c>
+      <c r="F52" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>743.33333333333337</v>
-      </c>
-      <c r="F52" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G52" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>255</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>374</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -31263,16 +31263,16 @@
         <v>52</v>
       </c>
       <c r="E53" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>751.33333333333337</v>
+      </c>
+      <c r="F53" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>751.33333333333337</v>
-      </c>
-      <c r="F53" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G53" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>262</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>381</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -31289,16 +31289,16 @@
         <v>53</v>
       </c>
       <c r="E54" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>748.33333333333337</v>
+      </c>
+      <c r="F54" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>748.33333333333337</v>
-      </c>
-      <c r="F54" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>27.333333333333332</v>
       </c>
       <c r="G54" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>265.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>388</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -31315,16 +31315,16 @@
         <v>54</v>
       </c>
       <c r="E55" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>751</v>
+      </c>
+      <c r="F55" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>751</v>
-      </c>
-      <c r="F55" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G55" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>269</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>395</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -31341,16 +31341,16 @@
         <v>55</v>
       </c>
       <c r="E56" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>763</v>
+      </c>
+      <c r="F56" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>763</v>
-      </c>
-      <c r="F56" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G56" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>276</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>402</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -31367,16 +31367,16 @@
         <v>56</v>
       </c>
       <c r="E57" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>764.33333333333337</v>
+      </c>
+      <c r="F57" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>764.33333333333337</v>
-      </c>
-      <c r="F57" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G57" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>279.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>409</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -31393,16 +31393,16 @@
         <v>57</v>
       </c>
       <c r="E58" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>761.33333333333337</v>
+      </c>
+      <c r="F58" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>761.33333333333337</v>
-      </c>
-      <c r="F58" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G58" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>283</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>416</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -31419,16 +31419,16 @@
         <v>58</v>
       </c>
       <c r="E59" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>769.33333333333337</v>
+      </c>
+      <c r="F59" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>769.33333333333337</v>
-      </c>
-      <c r="F59" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G59" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>290</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>423</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -31445,16 +31445,16 @@
         <v>59</v>
       </c>
       <c r="E60" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>770</v>
+      </c>
+      <c r="F60" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>770</v>
-      </c>
-      <c r="F60" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G60" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>293.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>430</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -31471,16 +31471,16 @@
         <v>60</v>
       </c>
       <c r="E61" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>776.66666666666663</v>
+      </c>
+      <c r="F61" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>776.66666666666663</v>
-      </c>
-      <c r="F61" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G61" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>297</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>437</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -31497,16 +31497,16 @@
         <v>61</v>
       </c>
       <c r="E62" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>783</v>
+      </c>
+      <c r="F62" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>783</v>
-      </c>
-      <c r="F62" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G62" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>304</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>444</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -31523,16 +31523,16 @@
         <v>62</v>
       </c>
       <c r="E63" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>782.33333333333337</v>
+      </c>
+      <c r="F63" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>782.33333333333337</v>
-      </c>
-      <c r="F63" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G63" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>307.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>451</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -31549,16 +31549,16 @@
         <v>63</v>
       </c>
       <c r="E64" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>786.33333333333337</v>
+      </c>
+      <c r="F64" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>786.33333333333337</v>
-      </c>
-      <c r="F64" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>25.5</v>
+        <v>29</v>
       </c>
       <c r="G64" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>311</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>458</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -31575,16 +31575,16 @@
         <v>64</v>
       </c>
       <c r="E65" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>788.66666666666663</v>
+      </c>
+      <c r="F65" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>788.66666666666663</v>
-      </c>
-      <c r="F65" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G65" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>318</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -31601,16 +31601,16 @@
         <v>65</v>
       </c>
       <c r="E66" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>798.33333333333337</v>
+      </c>
+      <c r="F66" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>798.33333333333337</v>
-      </c>
-      <c r="F66" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G66" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>321.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>472</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -31627,16 +31627,16 @@
         <v>66</v>
       </c>
       <c r="E67" s="7">
-        <f t="shared" ref="E67:E102" ca="1" si="8">AVERAGE(OFFSET(A$2,(ROW()-2)*3,0,3))</f>
+        <f t="shared" ref="E67:E102" ca="1" si="4">AVERAGE(OFFSET(A$2,(ROW()-2)*3,0,3))</f>
         <v>798.33333333333337</v>
       </c>
       <c r="F67" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <f t="shared" ref="F67:F102" ca="1" si="5">AVERAGE(OFFSET(B$2,(ROW()-2)*3,0,3))</f>
+        <v>30</v>
       </c>
       <c r="G67" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>325</v>
+        <f t="shared" ref="G67:G102" ca="1" si="6">AVERAGE(OFFSET(C$2,(ROW()-2)*3,0,3))</f>
+        <v>479</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -31653,16 +31653,16 @@
         <v>67</v>
       </c>
       <c r="E68" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>804.33333333333337</v>
       </c>
       <c r="F68" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>30</v>
       </c>
       <c r="G68" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>332</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>486</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -31679,16 +31679,16 @@
         <v>68</v>
       </c>
       <c r="E69" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>805.33333333333337</v>
       </c>
       <c r="F69" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>30</v>
       </c>
       <c r="G69" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>335.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>493</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -31705,16 +31705,16 @@
         <v>69</v>
       </c>
       <c r="E70" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>828.33333333333337</v>
       </c>
       <c r="F70" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>30</v>
       </c>
       <c r="G70" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>339</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>500</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -31731,16 +31731,16 @@
         <v>70</v>
       </c>
       <c r="E71" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>815</v>
       </c>
       <c r="F71" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>30</v>
       </c>
       <c r="G71" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>346</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>507</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -31757,16 +31757,16 @@
         <v>71</v>
       </c>
       <c r="E72" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>824</v>
       </c>
       <c r="F72" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>31</v>
       </c>
       <c r="G72" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>349.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>514</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -31783,16 +31783,16 @@
         <v>72</v>
       </c>
       <c r="E73" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>819</v>
       </c>
       <c r="F73" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>31</v>
       </c>
       <c r="G73" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>353</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>521</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -31809,16 +31809,16 @@
         <v>73</v>
       </c>
       <c r="E74" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>833.33333333333337</v>
       </c>
       <c r="F74" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>31</v>
       </c>
       <c r="G74" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>360</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>528</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -31835,16 +31835,16 @@
         <v>74</v>
       </c>
       <c r="E75" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>833</v>
       </c>
       <c r="F75" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>31</v>
       </c>
       <c r="G75" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>363.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>535</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -31861,16 +31861,16 @@
         <v>75</v>
       </c>
       <c r="E76" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>840</v>
       </c>
       <c r="F76" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>31</v>
       </c>
       <c r="G76" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>367</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>542</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -31887,16 +31887,16 @@
         <v>76</v>
       </c>
       <c r="E77" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>840.33333333333337</v>
       </c>
       <c r="F77" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>31</v>
       </c>
       <c r="G77" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>374</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>549</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -31913,16 +31913,16 @@
         <v>77</v>
       </c>
       <c r="E78" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>848.33333333333337</v>
       </c>
       <c r="F78" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>32</v>
       </c>
       <c r="G78" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>377.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>556</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -31939,16 +31939,16 @@
         <v>78</v>
       </c>
       <c r="E79" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>850.66666666666663</v>
       </c>
       <c r="F79" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>32</v>
       </c>
       <c r="G79" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>381</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>563</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -31965,16 +31965,16 @@
         <v>79</v>
       </c>
       <c r="E80" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>856.66666666666663</v>
       </c>
       <c r="F80" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>32</v>
       </c>
       <c r="G80" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>388</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>570</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -31991,16 +31991,16 @@
         <v>80</v>
       </c>
       <c r="E81" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>855.33333333333337</v>
       </c>
       <c r="F81" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>27.5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>32</v>
       </c>
       <c r="G81" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>391.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>577</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -32017,16 +32017,16 @@
         <v>81</v>
       </c>
       <c r="E82" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>867.33333333333337</v>
       </c>
       <c r="F82" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>32</v>
       </c>
       <c r="G82" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>395</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>584</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -32043,16 +32043,16 @@
         <v>82</v>
       </c>
       <c r="E83" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>870.33333333333337</v>
       </c>
       <c r="F83" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>32.333333333333336</v>
       </c>
       <c r="G83" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>402</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>591</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -32069,16 +32069,16 @@
         <v>83</v>
       </c>
       <c r="E84" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>875.33333333333337</v>
       </c>
       <c r="F84" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>33</v>
       </c>
       <c r="G84" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>405.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>598</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -32095,16 +32095,16 @@
         <v>84</v>
       </c>
       <c r="E85" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>872.33333333333337</v>
       </c>
       <c r="F85" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>33</v>
       </c>
       <c r="G85" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>409</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>605</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -32121,16 +32121,16 @@
         <v>85</v>
       </c>
       <c r="E86" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>887</v>
       </c>
       <c r="F86" s="7">
-        <f t="shared" ca="1" si="7"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>33</v>
       </c>
       <c r="G86" s="7">
-        <f t="shared" ref="G86:G102" ca="1" si="9">AVERAGE(OFFSET(C$2,(ROW()-2)*2,0,2))</f>
-        <v>416</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>612</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -32147,16 +32147,16 @@
         <v>86</v>
       </c>
       <c r="E87" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>892.66666666666663</v>
       </c>
       <c r="F87" s="7">
-        <f t="shared" ref="F87:F102" ca="1" si="10">AVERAGE(OFFSET(B$2,(ROW()-2)*2,0,2))</f>
-        <v>28</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>33.333333333333336</v>
       </c>
       <c r="G87" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>419.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>619</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -32173,16 +32173,16 @@
         <v>87</v>
       </c>
       <c r="E88" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>901</v>
       </c>
       <c r="F88" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>33</v>
       </c>
       <c r="G88" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>423</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>626</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -32199,16 +32199,16 @@
         <v>88</v>
       </c>
       <c r="E89" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>953.66666666666663</v>
       </c>
       <c r="F89" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>35</v>
       </c>
       <c r="G89" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>430</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>633</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -32225,16 +32225,16 @@
         <v>89</v>
       </c>
       <c r="E90" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>909</v>
       </c>
       <c r="F90" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>35</v>
       </c>
       <c r="G90" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>433.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>640</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -32251,16 +32251,16 @@
         <v>90</v>
       </c>
       <c r="E91" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>912</v>
       </c>
       <c r="F91" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>35</v>
       </c>
       <c r="G91" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>437</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>647</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -32277,16 +32277,16 @@
         <v>91</v>
       </c>
       <c r="E92" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>912.66666666666663</v>
       </c>
       <c r="F92" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>35</v>
       </c>
       <c r="G92" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>444</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>654</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -32303,16 +32303,16 @@
         <v>92</v>
       </c>
       <c r="E93" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>913.33333333333337</v>
       </c>
       <c r="F93" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>35</v>
       </c>
       <c r="G93" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>447.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>661</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -32329,16 +32329,16 @@
         <v>93</v>
       </c>
       <c r="E94" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>929.66666666666663</v>
       </c>
       <c r="F94" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>36</v>
       </c>
       <c r="G94" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>451</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>668</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -32355,16 +32355,16 @@
         <v>94</v>
       </c>
       <c r="E95" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>935</v>
       </c>
       <c r="F95" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>36</v>
       </c>
       <c r="G95" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>458</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>675</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -32381,16 +32381,16 @@
         <v>95</v>
       </c>
       <c r="E96" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>932</v>
       </c>
       <c r="F96" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>36</v>
       </c>
       <c r="G96" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>461.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>682</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -32407,16 +32407,16 @@
         <v>96</v>
       </c>
       <c r="E97" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>952.66666666666663</v>
       </c>
       <c r="F97" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>36</v>
       </c>
       <c r="G97" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>465</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>689</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -32433,16 +32433,16 @@
         <v>97</v>
       </c>
       <c r="E98" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>957</v>
       </c>
       <c r="F98" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>36</v>
       </c>
       <c r="G98" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>472</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>696</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -32459,16 +32459,16 @@
         <v>98</v>
       </c>
       <c r="E99" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>955.33333333333337</v>
       </c>
       <c r="F99" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>37</v>
       </c>
       <c r="G99" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>475.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>703</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -32485,16 +32485,16 @@
         <v>99</v>
       </c>
       <c r="E100" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>966</v>
       </c>
       <c r="F100" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>37</v>
       </c>
       <c r="G100" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>479</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>710</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -32511,16 +32511,16 @@
         <v>100</v>
       </c>
       <c r="E101" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>976</v>
       </c>
       <c r="F101" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>37</v>
       </c>
       <c r="G101" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>486</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>717</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -32537,16 +32537,16 @@
         <v>101</v>
       </c>
       <c r="E102" s="7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="4"/>
         <v>979.33333333333337</v>
       </c>
       <c r="F102" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>37</v>
       </c>
       <c r="G102" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>489.5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>724</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -41615,7 +41615,7 @@
       </c>
       <c r="H3" s="1">
         <f ca="1">VarexJ!G3</f>
-        <v>27.5</v>
+        <v>31</v>
       </c>
       <c r="I3" s="2">
         <f ca="1">'JPF-Core'!G3</f>
@@ -41631,7 +41631,7 @@
       </c>
       <c r="L3" s="1">
         <f ca="1">VarexJ!F3</f>
-        <v>21.5</v>
+        <v>21.333333333333332</v>
       </c>
       <c r="M3" s="2">
         <f ca="1">'JPF-Core'!F3</f>
@@ -41679,7 +41679,7 @@
       </c>
       <c r="H4" s="1">
         <f ca="1">VarexJ!G4</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I4" s="2">
         <f ca="1">'JPF-Core'!G4</f>
@@ -41743,7 +41743,7 @@
       </c>
       <c r="H5" s="1">
         <f ca="1">VarexJ!G5</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I5" s="2">
         <f ca="1">'JPF-Core'!G5</f>
@@ -41807,7 +41807,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1">VarexJ!G6</f>
-        <v>41.5</v>
+        <v>52</v>
       </c>
       <c r="I6" s="2">
         <f ca="1">'JPF-Core'!G6</f>
@@ -41868,7 +41868,7 @@
       </c>
       <c r="H7" s="1">
         <f ca="1">VarexJ!G7</f>
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="I7" s="2">
         <f ca="1">'JPF-Core'!G7</f>
@@ -41884,7 +41884,7 @@
       </c>
       <c r="L7" s="1">
         <f ca="1">VarexJ!F7</f>
-        <v>21</v>
+        <v>21.333333333333332</v>
       </c>
       <c r="M7" s="2">
         <f ca="1">'JPF-Core'!F7</f>
@@ -41929,7 +41929,7 @@
       </c>
       <c r="H8" s="1">
         <f ca="1">VarexJ!G8</f>
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="I8" s="2">
         <f ca="1">'JPF-Core'!G8</f>
@@ -41990,7 +41990,7 @@
       </c>
       <c r="H9" s="1">
         <f ca="1">VarexJ!G9</f>
-        <v>55.5</v>
+        <v>73</v>
       </c>
       <c r="I9" s="2">
         <f ca="1">'JPF-Core'!G9</f>
@@ -42051,7 +42051,7 @@
       </c>
       <c r="H10" s="1">
         <f ca="1">VarexJ!G10</f>
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="I10" s="2">
         <f ca="1">'JPF-Core'!G10</f>
@@ -42067,7 +42067,7 @@
       </c>
       <c r="L10" s="1">
         <f ca="1">VarexJ!F10</f>
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="M10" s="2">
         <f ca="1">'JPF-Core'!F10</f>
@@ -42112,7 +42112,7 @@
       </c>
       <c r="H11" s="1">
         <f ca="1">VarexJ!G11</f>
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="I11" s="2">
         <f ca="1">'JPF-Core'!G11</f>
@@ -42128,7 +42128,7 @@
       </c>
       <c r="L11" s="1">
         <f ca="1">VarexJ!F11</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M11" s="2">
         <f ca="1">'JPF-Core'!F11</f>
@@ -42173,7 +42173,7 @@
       </c>
       <c r="H12" s="1">
         <f ca="1">VarexJ!G12</f>
-        <v>69.5</v>
+        <v>94</v>
       </c>
       <c r="I12" s="2">
         <f ca="1">'JPF-Core'!G12</f>
@@ -42189,7 +42189,7 @@
       </c>
       <c r="L12" s="1">
         <f ca="1">VarexJ!F12</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" s="2">
         <f ca="1">'JPF-Core'!F12</f>
@@ -42234,7 +42234,7 @@
       </c>
       <c r="H13" s="1">
         <f ca="1">VarexJ!G13</f>
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="I13" s="2">
         <f ca="1">'JPF-Core'!G13</f>
@@ -42250,7 +42250,7 @@
       </c>
       <c r="L13" s="1">
         <f ca="1">VarexJ!F13</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M13" s="2">
         <f ca="1">'JPF-Core'!F13</f>
@@ -42295,7 +42295,7 @@
       </c>
       <c r="H14" s="1">
         <f ca="1">VarexJ!G14</f>
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="I14" s="2">
         <f ca="1">'JPF-Core'!G14</f>
@@ -42311,7 +42311,7 @@
       </c>
       <c r="L14" s="1">
         <f ca="1">VarexJ!F14</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M14" s="2">
         <f ca="1">'JPF-Core'!F14</f>
@@ -42356,7 +42356,7 @@
       </c>
       <c r="H15" s="1">
         <f ca="1">VarexJ!G15</f>
-        <v>83.5</v>
+        <v>115</v>
       </c>
       <c r="I15" s="2">
         <f ca="1">'JPF-Core'!G15</f>
@@ -42372,7 +42372,7 @@
       </c>
       <c r="L15" s="1">
         <f ca="1">VarexJ!F15</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M15" s="2">
         <f ca="1">'JPF-Core'!F15</f>
@@ -42417,7 +42417,7 @@
       </c>
       <c r="H16" s="1">
         <f ca="1">VarexJ!G16</f>
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="I16" s="2">
         <f ca="1">'JPF-Core'!G16</f>
@@ -42478,7 +42478,7 @@
       </c>
       <c r="H17" s="1">
         <f ca="1">VarexJ!G17</f>
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="I17" s="2">
         <f ca="1">'JPF-Core'!G17</f>
@@ -42539,7 +42539,7 @@
       </c>
       <c r="H18" s="1">
         <f ca="1">VarexJ!G18</f>
-        <v>97.5</v>
+        <v>136</v>
       </c>
       <c r="I18" s="2">
         <f ca="1">'JPF-Core'!G18</f>
@@ -42600,7 +42600,7 @@
       </c>
       <c r="H19" s="1">
         <f ca="1">VarexJ!G19</f>
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="I19" s="2">
         <f ca="1">'JPF-Core'!G19</f>
@@ -42661,7 +42661,7 @@
       </c>
       <c r="H20" s="1">
         <f ca="1">VarexJ!G20</f>
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="I20" s="2">
         <f ca="1">'JPF-Core'!G20</f>
@@ -42722,7 +42722,7 @@
       </c>
       <c r="H21" s="1">
         <f ca="1">VarexJ!G21</f>
-        <v>111.5</v>
+        <v>157</v>
       </c>
       <c r="I21" s="2">
         <f ca="1">'JPF-Core'!G21</f>
@@ -42783,7 +42783,7 @@
       </c>
       <c r="H22" s="1">
         <f ca="1">VarexJ!G22</f>
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="I22" s="2">
         <f ca="1">'JPF-Core'!G22</f>
@@ -42844,7 +42844,7 @@
       </c>
       <c r="H23" s="1">
         <f ca="1">VarexJ!G23</f>
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="I23" s="2">
         <f ca="1">'JPF-Core'!G23</f>
@@ -42905,7 +42905,7 @@
       </c>
       <c r="H24" s="1">
         <f ca="1">VarexJ!G24</f>
-        <v>125.5</v>
+        <v>178</v>
       </c>
       <c r="I24" s="2">
         <f ca="1">'JPF-Core'!G24</f>
@@ -42921,7 +42921,7 @@
       </c>
       <c r="L24" s="1">
         <f ca="1">VarexJ!F24</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M24" s="2">
         <f ca="1">'JPF-Core'!F24</f>
@@ -42966,7 +42966,7 @@
       </c>
       <c r="H25" s="1">
         <f ca="1">VarexJ!G25</f>
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="I25" s="2">
         <f ca="1">'JPF-Core'!G25</f>
@@ -42982,7 +42982,7 @@
       </c>
       <c r="L25" s="1">
         <f ca="1">VarexJ!F25</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M25" s="2">
         <f ca="1">'JPF-Core'!F25</f>
@@ -43027,7 +43027,7 @@
       </c>
       <c r="H26" s="1">
         <f ca="1">VarexJ!G26</f>
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="I26" s="2">
         <f ca="1">'JPF-Core'!G26</f>
@@ -43043,7 +43043,7 @@
       </c>
       <c r="L26" s="1">
         <f ca="1">VarexJ!F26</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M26" s="2">
         <f ca="1">'JPF-Core'!F26</f>
@@ -43088,7 +43088,7 @@
       </c>
       <c r="H27" s="1">
         <f ca="1">VarexJ!G27</f>
-        <v>139.5</v>
+        <v>199</v>
       </c>
       <c r="I27" s="2">
         <f ca="1">'JPF-Core'!G27</f>
@@ -43104,7 +43104,7 @@
       </c>
       <c r="L27" s="1">
         <f ca="1">VarexJ!F27</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M27" s="2">
         <f ca="1">'JPF-Core'!F27</f>
@@ -43149,7 +43149,7 @@
       </c>
       <c r="H28" s="1">
         <f ca="1">VarexJ!G28</f>
-        <v>143</v>
+        <v>206</v>
       </c>
       <c r="I28" s="2">
         <f ca="1">'JPF-Core'!G28</f>
@@ -43165,7 +43165,7 @@
       </c>
       <c r="L28" s="1">
         <f ca="1">VarexJ!F28</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M28" s="2">
         <f ca="1">'JPF-Core'!F28</f>
@@ -43210,7 +43210,7 @@
       </c>
       <c r="H29" s="1">
         <f ca="1">VarexJ!G29</f>
-        <v>150</v>
+        <v>213</v>
       </c>
       <c r="I29" s="2">
         <f ca="1">'JPF-Core'!G29</f>
@@ -43226,7 +43226,7 @@
       </c>
       <c r="L29" s="1">
         <f ca="1">VarexJ!F29</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M29" s="2">
         <f ca="1">'JPF-Core'!F29</f>
@@ -43271,7 +43271,7 @@
       </c>
       <c r="H30" s="1">
         <f ca="1">VarexJ!G30</f>
-        <v>153.5</v>
+        <v>220</v>
       </c>
       <c r="I30" s="2">
         <f ca="1">'JPF-Core'!G30</f>
@@ -43287,7 +43287,7 @@
       </c>
       <c r="L30" s="1">
         <f ca="1">VarexJ!F30</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M30" s="2">
         <f ca="1">'JPF-Core'!F30</f>
@@ -43332,7 +43332,7 @@
       </c>
       <c r="H31" s="1">
         <f ca="1">VarexJ!G31</f>
-        <v>157</v>
+        <v>227</v>
       </c>
       <c r="I31" s="2">
         <f ca="1">'JPF-Core'!G31</f>
@@ -43348,7 +43348,7 @@
       </c>
       <c r="L31" s="1">
         <f ca="1">VarexJ!F31</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M31" s="2">
         <f ca="1">'JPF-Core'!F31</f>
@@ -43393,7 +43393,7 @@
       </c>
       <c r="H32" s="1">
         <f ca="1">VarexJ!G32</f>
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="I32" s="2">
         <f ca="1">'JPF-Core'!G32</f>
@@ -43409,7 +43409,7 @@
       </c>
       <c r="L32" s="1">
         <f ca="1">VarexJ!F32</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M32" s="2">
         <f ca="1">'JPF-Core'!F32</f>
@@ -43454,7 +43454,7 @@
       </c>
       <c r="H33" s="1">
         <f ca="1">VarexJ!G33</f>
-        <v>167.5</v>
+        <v>241</v>
       </c>
       <c r="I33" s="2">
         <f ca="1">'JPF-Core'!G33</f>
@@ -43470,7 +43470,7 @@
       </c>
       <c r="L33" s="1">
         <f ca="1">VarexJ!F33</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M33" s="2">
         <f ca="1">'JPF-Core'!F33</f>
@@ -43515,7 +43515,7 @@
       </c>
       <c r="H34" s="1">
         <f ca="1">VarexJ!G34</f>
-        <v>171</v>
+        <v>248</v>
       </c>
       <c r="I34" s="2">
         <f ca="1">'JPF-Core'!G34</f>
@@ -43531,7 +43531,7 @@
       </c>
       <c r="L34" s="1">
         <f ca="1">VarexJ!F34</f>
-        <v>23</v>
+        <v>24.333333333333332</v>
       </c>
       <c r="M34" s="2">
         <f ca="1">'JPF-Core'!F34</f>
@@ -43576,7 +43576,7 @@
       </c>
       <c r="H35" s="1">
         <f ca="1">VarexJ!G35</f>
-        <v>178</v>
+        <v>255</v>
       </c>
       <c r="I35" s="2">
         <f ca="1">'JPF-Core'!G35</f>
@@ -43592,7 +43592,7 @@
       </c>
       <c r="L35" s="1">
         <f ca="1">VarexJ!F35</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M35" s="2">
         <f ca="1">'JPF-Core'!F35</f>
@@ -43637,7 +43637,7 @@
       </c>
       <c r="H36" s="1">
         <f ca="1">VarexJ!G36</f>
-        <v>181.5</v>
+        <v>262</v>
       </c>
       <c r="I36" s="2">
         <f ca="1">'JPF-Core'!G36</f>
@@ -43653,7 +43653,7 @@
       </c>
       <c r="L36" s="1">
         <f ca="1">VarexJ!F36</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M36" s="2">
         <f ca="1">'JPF-Core'!F36</f>
@@ -43698,7 +43698,7 @@
       </c>
       <c r="H37" s="1">
         <f ca="1">VarexJ!G37</f>
-        <v>185</v>
+        <v>269</v>
       </c>
       <c r="I37" s="2">
         <f ca="1">'JPF-Core'!G37</f>
@@ -43714,7 +43714,7 @@
       </c>
       <c r="L37" s="1">
         <f ca="1">VarexJ!F37</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M37" s="2">
         <f ca="1">'JPF-Core'!F37</f>
@@ -43759,7 +43759,7 @@
       </c>
       <c r="H38" s="1">
         <f ca="1">VarexJ!G38</f>
-        <v>192</v>
+        <v>276</v>
       </c>
       <c r="I38" s="2">
         <f ca="1">'JPF-Core'!G38</f>
@@ -43775,7 +43775,7 @@
       </c>
       <c r="L38" s="1">
         <f ca="1">VarexJ!F38</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M38" s="2">
         <f ca="1">'JPF-Core'!F38</f>
@@ -43820,7 +43820,7 @@
       </c>
       <c r="H39" s="1">
         <f ca="1">VarexJ!G39</f>
-        <v>195.5</v>
+        <v>283</v>
       </c>
       <c r="I39" s="2">
         <f ca="1">'JPF-Core'!G39</f>
@@ -43836,7 +43836,7 @@
       </c>
       <c r="L39" s="1">
         <f ca="1">VarexJ!F39</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M39" s="2">
         <f ca="1">'JPF-Core'!F39</f>
@@ -43881,7 +43881,7 @@
       </c>
       <c r="H40" s="1">
         <f ca="1">VarexJ!G40</f>
-        <v>199</v>
+        <v>290</v>
       </c>
       <c r="I40" s="2">
         <f ca="1">'JPF-Core'!G40</f>
@@ -43897,7 +43897,7 @@
       </c>
       <c r="L40" s="1">
         <f ca="1">VarexJ!F40</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M40" s="2">
         <f ca="1">'JPF-Core'!F40</f>
@@ -43942,7 +43942,7 @@
       </c>
       <c r="H41" s="1">
         <f ca="1">VarexJ!G41</f>
-        <v>206</v>
+        <v>297</v>
       </c>
       <c r="I41" s="2">
         <f ca="1">'JPF-Core'!G41</f>
@@ -43958,7 +43958,7 @@
       </c>
       <c r="L41" s="1">
         <f ca="1">VarexJ!F41</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M41" s="2">
         <f ca="1">'JPF-Core'!F41</f>
@@ -44003,7 +44003,7 @@
       </c>
       <c r="H42" s="1">
         <f ca="1">VarexJ!G42</f>
-        <v>209.5</v>
+        <v>304</v>
       </c>
       <c r="I42" s="2">
         <f ca="1">'JPF-Core'!G42</f>
@@ -44019,7 +44019,7 @@
       </c>
       <c r="L42" s="1">
         <f ca="1">VarexJ!F42</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M42" s="2">
         <f ca="1">'JPF-Core'!F42</f>
@@ -44064,7 +44064,7 @@
       </c>
       <c r="H43" s="1">
         <f ca="1">VarexJ!G43</f>
-        <v>213</v>
+        <v>311</v>
       </c>
       <c r="I43" s="2">
         <f ca="1">'JPF-Core'!G43</f>
@@ -44080,7 +44080,7 @@
       </c>
       <c r="L43" s="1">
         <f ca="1">VarexJ!F43</f>
-        <v>24</v>
+        <v>25.333333333333332</v>
       </c>
       <c r="M43" s="2">
         <f ca="1">'JPF-Core'!F43</f>
@@ -44125,7 +44125,7 @@
       </c>
       <c r="H44" s="1">
         <f ca="1">VarexJ!G44</f>
-        <v>220</v>
+        <v>318</v>
       </c>
       <c r="I44" s="2">
         <f ca="1">'JPF-Core'!G44</f>
@@ -44141,7 +44141,7 @@
       </c>
       <c r="L44" s="1">
         <f ca="1">VarexJ!F44</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M44" s="2">
         <f ca="1">'JPF-Core'!F44</f>
@@ -44186,7 +44186,7 @@
       </c>
       <c r="H45" s="1">
         <f ca="1">VarexJ!G45</f>
-        <v>223.5</v>
+        <v>325</v>
       </c>
       <c r="I45" s="2">
         <f ca="1">'JPF-Core'!G45</f>
@@ -44202,7 +44202,7 @@
       </c>
       <c r="L45" s="1">
         <f ca="1">VarexJ!F45</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M45" s="2">
         <f ca="1">'JPF-Core'!F45</f>
@@ -44247,7 +44247,7 @@
       </c>
       <c r="H46" s="1">
         <f ca="1">VarexJ!G46</f>
-        <v>227</v>
+        <v>332</v>
       </c>
       <c r="I46" s="2">
         <f ca="1">'JPF-Core'!G46</f>
@@ -44263,7 +44263,7 @@
       </c>
       <c r="L46" s="1">
         <f ca="1">VarexJ!F46</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M46" s="2">
         <f ca="1">'JPF-Core'!F46</f>
@@ -44308,7 +44308,7 @@
       </c>
       <c r="H47" s="1">
         <f ca="1">VarexJ!G47</f>
-        <v>234</v>
+        <v>339</v>
       </c>
       <c r="I47" s="2">
         <f ca="1">'JPF-Core'!G47</f>
@@ -44324,7 +44324,7 @@
       </c>
       <c r="L47" s="1">
         <f ca="1">VarexJ!F47</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M47" s="2">
         <f ca="1">'JPF-Core'!F47</f>
@@ -44369,7 +44369,7 @@
       </c>
       <c r="H48" s="1">
         <f ca="1">VarexJ!G48</f>
-        <v>237.5</v>
+        <v>346</v>
       </c>
       <c r="I48" s="2">
         <f ca="1">'JPF-Core'!G48</f>
@@ -44385,7 +44385,7 @@
       </c>
       <c r="L48" s="1">
         <f ca="1">VarexJ!F48</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M48" s="2">
         <f ca="1">'JPF-Core'!F48</f>
@@ -44430,7 +44430,7 @@
       </c>
       <c r="H49" s="1">
         <f ca="1">VarexJ!G49</f>
-        <v>241</v>
+        <v>353</v>
       </c>
       <c r="I49" s="2">
         <f ca="1">'JPF-Core'!G49</f>
@@ -44446,7 +44446,7 @@
       </c>
       <c r="L49" s="1">
         <f ca="1">VarexJ!F49</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M49" s="2">
         <f ca="1">'JPF-Core'!F49</f>
@@ -44491,7 +44491,7 @@
       </c>
       <c r="H50" s="1">
         <f ca="1">VarexJ!G50</f>
-        <v>248</v>
+        <v>360</v>
       </c>
       <c r="I50" s="2">
         <f ca="1">'JPF-Core'!G50</f>
@@ -44507,7 +44507,7 @@
       </c>
       <c r="L50" s="1">
         <f ca="1">VarexJ!F50</f>
-        <v>24.5</v>
+        <v>26</v>
       </c>
       <c r="M50" s="2">
         <f ca="1">'JPF-Core'!F50</f>
@@ -44552,7 +44552,7 @@
       </c>
       <c r="H51" s="1">
         <f ca="1">VarexJ!G51</f>
-        <v>251.5</v>
+        <v>367</v>
       </c>
       <c r="I51" s="2">
         <f ca="1">'JPF-Core'!G51</f>
@@ -44568,7 +44568,7 @@
       </c>
       <c r="L51" s="1">
         <f ca="1">VarexJ!F51</f>
-        <v>24.5</v>
+        <v>26</v>
       </c>
       <c r="M51" s="2">
         <f ca="1">'JPF-Core'!F51</f>
@@ -44613,7 +44613,7 @@
       </c>
       <c r="H52" s="1">
         <f ca="1">VarexJ!G52</f>
-        <v>255</v>
+        <v>374</v>
       </c>
       <c r="I52" s="2">
         <f ca="1">'JPF-Core'!G52</f>
@@ -44629,7 +44629,7 @@
       </c>
       <c r="L52" s="1">
         <f ca="1">VarexJ!F52</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M52" s="2">
         <f ca="1">'JPF-Core'!F52</f>
@@ -44674,7 +44674,7 @@
       </c>
       <c r="H53" s="1">
         <f ca="1">VarexJ!G53</f>
-        <v>262</v>
+        <v>381</v>
       </c>
       <c r="I53" s="2">
         <f ca="1">'JPF-Core'!G53</f>
@@ -44690,7 +44690,7 @@
       </c>
       <c r="L53" s="1">
         <f ca="1">VarexJ!F53</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M53" s="2">
         <f ca="1">'JPF-Core'!F53</f>
@@ -44735,7 +44735,7 @@
       </c>
       <c r="H54" s="1">
         <f ca="1">VarexJ!G54</f>
-        <v>265.5</v>
+        <v>388</v>
       </c>
       <c r="I54" s="2">
         <f ca="1">'JPF-Core'!G54</f>
@@ -44751,7 +44751,7 @@
       </c>
       <c r="L54" s="1">
         <f ca="1">VarexJ!F54</f>
-        <v>25</v>
+        <v>27.333333333333332</v>
       </c>
       <c r="M54" s="2">
         <f ca="1">'JPF-Core'!F54</f>
@@ -44796,7 +44796,7 @@
       </c>
       <c r="H55" s="1">
         <f ca="1">VarexJ!G55</f>
-        <v>269</v>
+        <v>395</v>
       </c>
       <c r="I55" s="2">
         <f ca="1">'JPF-Core'!G55</f>
@@ -44812,7 +44812,7 @@
       </c>
       <c r="L55" s="1">
         <f ca="1">VarexJ!F55</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M55" s="2">
         <f ca="1">'JPF-Core'!F55</f>
@@ -44857,7 +44857,7 @@
       </c>
       <c r="H56" s="1">
         <f ca="1">VarexJ!G56</f>
-        <v>276</v>
+        <v>402</v>
       </c>
       <c r="I56" s="2">
         <f ca="1">'JPF-Core'!G56</f>
@@ -44873,7 +44873,7 @@
       </c>
       <c r="L56" s="1">
         <f ca="1">VarexJ!F56</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M56" s="2">
         <f ca="1">'JPF-Core'!F56</f>
@@ -44918,7 +44918,7 @@
       </c>
       <c r="H57" s="1">
         <f ca="1">VarexJ!G57</f>
-        <v>279.5</v>
+        <v>409</v>
       </c>
       <c r="I57" s="2">
         <f ca="1">'JPF-Core'!G57</f>
@@ -44934,7 +44934,7 @@
       </c>
       <c r="L57" s="1">
         <f ca="1">VarexJ!F57</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M57" s="2">
         <f ca="1">'JPF-Core'!F57</f>
@@ -44979,7 +44979,7 @@
       </c>
       <c r="H58" s="1">
         <f ca="1">VarexJ!G58</f>
-        <v>283</v>
+        <v>416</v>
       </c>
       <c r="I58" s="2">
         <f ca="1">'JPF-Core'!G58</f>
@@ -44995,7 +44995,7 @@
       </c>
       <c r="L58" s="1">
         <f ca="1">VarexJ!F58</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M58" s="2">
         <f ca="1">'JPF-Core'!F58</f>
@@ -45040,7 +45040,7 @@
       </c>
       <c r="H59" s="1">
         <f ca="1">VarexJ!G59</f>
-        <v>290</v>
+        <v>423</v>
       </c>
       <c r="I59" s="2">
         <f ca="1">'JPF-Core'!G59</f>
@@ -45056,7 +45056,7 @@
       </c>
       <c r="L59" s="1">
         <f ca="1">VarexJ!F59</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M59" s="2">
         <f ca="1">'JPF-Core'!F59</f>
@@ -45101,7 +45101,7 @@
       </c>
       <c r="H60" s="1">
         <f ca="1">VarexJ!G60</f>
-        <v>293.5</v>
+        <v>430</v>
       </c>
       <c r="I60" s="2">
         <f ca="1">'JPF-Core'!G60</f>
@@ -45117,7 +45117,7 @@
       </c>
       <c r="L60" s="1">
         <f ca="1">VarexJ!F60</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M60" s="2">
         <f ca="1">'JPF-Core'!F60</f>
@@ -45162,7 +45162,7 @@
       </c>
       <c r="H61" s="1">
         <f ca="1">VarexJ!G61</f>
-        <v>297</v>
+        <v>437</v>
       </c>
       <c r="I61" s="2">
         <f ca="1">'JPF-Core'!G61</f>
@@ -45178,7 +45178,7 @@
       </c>
       <c r="L61" s="1">
         <f ca="1">VarexJ!F61</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M61" s="2">
         <f ca="1">'JPF-Core'!F61</f>
@@ -45223,7 +45223,7 @@
       </c>
       <c r="H62" s="1">
         <f ca="1">VarexJ!G62</f>
-        <v>304</v>
+        <v>444</v>
       </c>
       <c r="I62" s="2">
         <f ca="1">'JPF-Core'!G62</f>
@@ -45239,7 +45239,7 @@
       </c>
       <c r="L62" s="1">
         <f ca="1">VarexJ!F62</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M62" s="2">
         <f ca="1">'JPF-Core'!F62</f>
@@ -45284,7 +45284,7 @@
       </c>
       <c r="H63" s="1">
         <f ca="1">VarexJ!G63</f>
-        <v>307.5</v>
+        <v>451</v>
       </c>
       <c r="I63" s="2">
         <f ca="1">'JPF-Core'!G63</f>
@@ -45300,7 +45300,7 @@
       </c>
       <c r="L63" s="1">
         <f ca="1">VarexJ!F63</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M63" s="2">
         <f ca="1">'JPF-Core'!F63</f>
@@ -45345,7 +45345,7 @@
       </c>
       <c r="H64" s="1">
         <f ca="1">VarexJ!G64</f>
-        <v>311</v>
+        <v>458</v>
       </c>
       <c r="I64" s="2">
         <f ca="1">'JPF-Core'!G64</f>
@@ -45361,7 +45361,7 @@
       </c>
       <c r="L64" s="1">
         <f ca="1">VarexJ!F64</f>
-        <v>25.5</v>
+        <v>29</v>
       </c>
       <c r="M64" s="2">
         <f ca="1">'JPF-Core'!F64</f>
@@ -45406,7 +45406,7 @@
       </c>
       <c r="H65" s="1">
         <f ca="1">VarexJ!G65</f>
-        <v>318</v>
+        <v>465</v>
       </c>
       <c r="I65" s="2">
         <f ca="1">'JPF-Core'!G65</f>
@@ -45422,7 +45422,7 @@
       </c>
       <c r="L65" s="1">
         <f ca="1">VarexJ!F65</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M65" s="2">
         <f ca="1">'JPF-Core'!F65</f>
@@ -45467,7 +45467,7 @@
       </c>
       <c r="H66" s="1">
         <f ca="1">VarexJ!G66</f>
-        <v>321.5</v>
+        <v>472</v>
       </c>
       <c r="I66" s="2">
         <f ca="1">'JPF-Core'!G66</f>
@@ -45483,7 +45483,7 @@
       </c>
       <c r="L66" s="1">
         <f ca="1">VarexJ!F66</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M66" s="2">
         <f ca="1">'JPF-Core'!F66</f>
@@ -45528,7 +45528,7 @@
       </c>
       <c r="H67" s="1">
         <f ca="1">VarexJ!G67</f>
-        <v>325</v>
+        <v>479</v>
       </c>
       <c r="I67" s="2">
         <f ca="1">'JPF-Core'!G67</f>
@@ -45544,7 +45544,7 @@
       </c>
       <c r="L67" s="1">
         <f ca="1">VarexJ!F67</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M67" s="2">
         <f ca="1">'JPF-Core'!F67</f>
@@ -45589,7 +45589,7 @@
       </c>
       <c r="H68" s="1">
         <f ca="1">VarexJ!G68</f>
-        <v>332</v>
+        <v>486</v>
       </c>
       <c r="I68" s="2">
         <f ca="1">'JPF-Core'!G68</f>
@@ -45605,7 +45605,7 @@
       </c>
       <c r="L68" s="1">
         <f ca="1">VarexJ!F68</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M68" s="2">
         <f ca="1">'JPF-Core'!F68</f>
@@ -45650,7 +45650,7 @@
       </c>
       <c r="H69" s="1">
         <f ca="1">VarexJ!G69</f>
-        <v>335.5</v>
+        <v>493</v>
       </c>
       <c r="I69" s="2">
         <f ca="1">'JPF-Core'!G69</f>
@@ -45666,7 +45666,7 @@
       </c>
       <c r="L69" s="1">
         <f ca="1">VarexJ!F69</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M69" s="2">
         <f ca="1">'JPF-Core'!F69</f>
@@ -45711,7 +45711,7 @@
       </c>
       <c r="H70" s="1">
         <f ca="1">VarexJ!G70</f>
-        <v>339</v>
+        <v>500</v>
       </c>
       <c r="I70" s="2">
         <f ca="1">'JPF-Core'!G70</f>
@@ -45727,7 +45727,7 @@
       </c>
       <c r="L70" s="1">
         <f ca="1">VarexJ!F70</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M70" s="2">
         <f ca="1">'JPF-Core'!F70</f>
@@ -45772,7 +45772,7 @@
       </c>
       <c r="H71" s="1">
         <f ca="1">VarexJ!G71</f>
-        <v>346</v>
+        <v>507</v>
       </c>
       <c r="I71" s="2">
         <f ca="1">'JPF-Core'!G71</f>
@@ -45788,7 +45788,7 @@
       </c>
       <c r="L71" s="1">
         <f ca="1">VarexJ!F71</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M71" s="2">
         <f ca="1">'JPF-Core'!F71</f>
@@ -45833,7 +45833,7 @@
       </c>
       <c r="H72" s="1">
         <f ca="1">VarexJ!G72</f>
-        <v>349.5</v>
+        <v>514</v>
       </c>
       <c r="I72" s="2">
         <f ca="1">'JPF-Core'!G72</f>
@@ -45849,7 +45849,7 @@
       </c>
       <c r="L72" s="1">
         <f ca="1">VarexJ!F72</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M72" s="2">
         <f ca="1">'JPF-Core'!F72</f>
@@ -45894,7 +45894,7 @@
       </c>
       <c r="H73" s="1">
         <f ca="1">VarexJ!G73</f>
-        <v>353</v>
+        <v>521</v>
       </c>
       <c r="I73" s="2">
         <f ca="1">'JPF-Core'!G73</f>
@@ -45910,7 +45910,7 @@
       </c>
       <c r="L73" s="1">
         <f ca="1">VarexJ!F73</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M73" s="2">
         <f ca="1">'JPF-Core'!F73</f>
@@ -45955,7 +45955,7 @@
       </c>
       <c r="H74" s="1">
         <f ca="1">VarexJ!G74</f>
-        <v>360</v>
+        <v>528</v>
       </c>
       <c r="I74" s="2">
         <f ca="1">'JPF-Core'!G74</f>
@@ -45971,7 +45971,7 @@
       </c>
       <c r="L74" s="1">
         <f ca="1">VarexJ!F74</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M74" s="2">
         <f ca="1">'JPF-Core'!F74</f>
@@ -46016,7 +46016,7 @@
       </c>
       <c r="H75" s="1">
         <f ca="1">VarexJ!G75</f>
-        <v>363.5</v>
+        <v>535</v>
       </c>
       <c r="I75" s="2">
         <f ca="1">'JPF-Core'!G75</f>
@@ -46032,7 +46032,7 @@
       </c>
       <c r="L75" s="1">
         <f ca="1">VarexJ!F75</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M75" s="2">
         <f ca="1">'JPF-Core'!F75</f>
@@ -46077,7 +46077,7 @@
       </c>
       <c r="H76" s="1">
         <f ca="1">VarexJ!G76</f>
-        <v>367</v>
+        <v>542</v>
       </c>
       <c r="I76" s="2">
         <f ca="1">'JPF-Core'!G76</f>
@@ -46093,7 +46093,7 @@
       </c>
       <c r="L76" s="1">
         <f ca="1">VarexJ!F76</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M76" s="2">
         <f ca="1">'JPF-Core'!F76</f>
@@ -46138,7 +46138,7 @@
       </c>
       <c r="H77" s="1">
         <f ca="1">VarexJ!G77</f>
-        <v>374</v>
+        <v>549</v>
       </c>
       <c r="I77" s="2">
         <f ca="1">'JPF-Core'!G77</f>
@@ -46154,7 +46154,7 @@
       </c>
       <c r="L77" s="1">
         <f ca="1">VarexJ!F77</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M77" s="2">
         <f ca="1">'JPF-Core'!F77</f>
@@ -46199,7 +46199,7 @@
       </c>
       <c r="H78" s="1">
         <f ca="1">VarexJ!G78</f>
-        <v>377.5</v>
+        <v>556</v>
       </c>
       <c r="I78" s="2">
         <f ca="1">'JPF-Core'!G78</f>
@@ -46215,7 +46215,7 @@
       </c>
       <c r="L78" s="1">
         <f ca="1">VarexJ!F78</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M78" s="2">
         <f ca="1">'JPF-Core'!F78</f>
@@ -46260,7 +46260,7 @@
       </c>
       <c r="H79" s="1">
         <f ca="1">VarexJ!G79</f>
-        <v>381</v>
+        <v>563</v>
       </c>
       <c r="I79" s="2">
         <f ca="1">'JPF-Core'!G79</f>
@@ -46276,7 +46276,7 @@
       </c>
       <c r="L79" s="1">
         <f ca="1">VarexJ!F79</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M79" s="2">
         <f ca="1">'JPF-Core'!F79</f>
@@ -46321,7 +46321,7 @@
       </c>
       <c r="H80" s="1">
         <f ca="1">VarexJ!G80</f>
-        <v>388</v>
+        <v>570</v>
       </c>
       <c r="I80" s="2">
         <f ca="1">'JPF-Core'!G80</f>
@@ -46337,7 +46337,7 @@
       </c>
       <c r="L80" s="1">
         <f ca="1">VarexJ!F80</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M80" s="2">
         <f ca="1">'JPF-Core'!F80</f>
@@ -46382,7 +46382,7 @@
       </c>
       <c r="H81" s="1">
         <f ca="1">VarexJ!G81</f>
-        <v>391.5</v>
+        <v>577</v>
       </c>
       <c r="I81" s="2">
         <f ca="1">'JPF-Core'!G81</f>
@@ -46398,7 +46398,7 @@
       </c>
       <c r="L81" s="1">
         <f ca="1">VarexJ!F81</f>
-        <v>27.5</v>
+        <v>32</v>
       </c>
       <c r="M81" s="2">
         <f ca="1">'JPF-Core'!F81</f>
@@ -46443,7 +46443,7 @@
       </c>
       <c r="H82" s="1">
         <f ca="1">VarexJ!G82</f>
-        <v>395</v>
+        <v>584</v>
       </c>
       <c r="I82" s="2">
         <f ca="1">'JPF-Core'!G82</f>
@@ -46459,7 +46459,7 @@
       </c>
       <c r="L82" s="1">
         <f ca="1">VarexJ!F82</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M82" s="2">
         <f ca="1">'JPF-Core'!F82</f>
@@ -46504,7 +46504,7 @@
       </c>
       <c r="H83" s="1">
         <f ca="1">VarexJ!G83</f>
-        <v>402</v>
+        <v>591</v>
       </c>
       <c r="I83" s="2">
         <f ca="1">'JPF-Core'!G83</f>
@@ -46520,7 +46520,7 @@
       </c>
       <c r="L83" s="1">
         <f ca="1">VarexJ!F83</f>
-        <v>27</v>
+        <v>32.333333333333336</v>
       </c>
       <c r="M83" s="2">
         <f ca="1">'JPF-Core'!F83</f>
@@ -46565,7 +46565,7 @@
       </c>
       <c r="H84" s="1">
         <f ca="1">VarexJ!G84</f>
-        <v>405.5</v>
+        <v>598</v>
       </c>
       <c r="I84" s="2">
         <f ca="1">'JPF-Core'!G84</f>
@@ -46581,7 +46581,7 @@
       </c>
       <c r="L84" s="1">
         <f ca="1">VarexJ!F84</f>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M84" s="2">
         <f ca="1">'JPF-Core'!F84</f>
@@ -46626,7 +46626,7 @@
       </c>
       <c r="H85" s="1">
         <f ca="1">VarexJ!G85</f>
-        <v>409</v>
+        <v>605</v>
       </c>
       <c r="I85" s="2">
         <f ca="1">'JPF-Core'!G85</f>
@@ -46642,7 +46642,7 @@
       </c>
       <c r="L85" s="1">
         <f ca="1">VarexJ!F85</f>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M85" s="2">
         <f ca="1">'JPF-Core'!F85</f>
@@ -46687,7 +46687,7 @@
       </c>
       <c r="H86" s="1">
         <f ca="1">VarexJ!G86</f>
-        <v>416</v>
+        <v>612</v>
       </c>
       <c r="I86" s="2">
         <f ca="1">'JPF-Core'!G86</f>
@@ -46703,7 +46703,7 @@
       </c>
       <c r="L86" s="1">
         <f ca="1">VarexJ!F86</f>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M86" s="2">
         <f ca="1">'JPF-Core'!F86</f>
@@ -46748,7 +46748,7 @@
       </c>
       <c r="H87" s="1">
         <f ca="1">VarexJ!G87</f>
-        <v>419.5</v>
+        <v>619</v>
       </c>
       <c r="I87" s="2">
         <f ca="1">'JPF-Core'!G87</f>
@@ -46764,7 +46764,7 @@
       </c>
       <c r="L87" s="1">
         <f ca="1">VarexJ!F87</f>
-        <v>28</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M87" s="2">
         <f ca="1">'JPF-Core'!F87</f>
@@ -46809,7 +46809,7 @@
       </c>
       <c r="H88" s="1">
         <f ca="1">VarexJ!G88</f>
-        <v>423</v>
+        <v>626</v>
       </c>
       <c r="I88" s="2">
         <f ca="1">'JPF-Core'!G88</f>
@@ -46825,7 +46825,7 @@
       </c>
       <c r="L88" s="1">
         <f ca="1">VarexJ!F88</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M88" s="2">
         <f ca="1">'JPF-Core'!F88</f>
@@ -46870,7 +46870,7 @@
       </c>
       <c r="H89" s="1">
         <f ca="1">VarexJ!G89</f>
-        <v>430</v>
+        <v>633</v>
       </c>
       <c r="I89" s="2">
         <f ca="1">'JPF-Core'!G89</f>
@@ -46886,7 +46886,7 @@
       </c>
       <c r="L89" s="1">
         <f ca="1">VarexJ!F89</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M89" s="2">
         <f ca="1">'JPF-Core'!F89</f>
@@ -46931,7 +46931,7 @@
       </c>
       <c r="H90" s="1">
         <f ca="1">VarexJ!G90</f>
-        <v>433.5</v>
+        <v>640</v>
       </c>
       <c r="I90" s="2">
         <f ca="1">'JPF-Core'!G90</f>
@@ -46947,7 +46947,7 @@
       </c>
       <c r="L90" s="1">
         <f ca="1">VarexJ!F90</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M90" s="2">
         <f ca="1">'JPF-Core'!F90</f>
@@ -46992,7 +46992,7 @@
       </c>
       <c r="H91" s="1">
         <f ca="1">VarexJ!G91</f>
-        <v>437</v>
+        <v>647</v>
       </c>
       <c r="I91" s="2">
         <f ca="1">'JPF-Core'!G91</f>
@@ -47008,7 +47008,7 @@
       </c>
       <c r="L91" s="1">
         <f ca="1">VarexJ!F91</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M91" s="2">
         <f ca="1">'JPF-Core'!F91</f>
@@ -47053,7 +47053,7 @@
       </c>
       <c r="H92" s="1">
         <f ca="1">VarexJ!G92</f>
-        <v>444</v>
+        <v>654</v>
       </c>
       <c r="I92" s="2">
         <f ca="1">'JPF-Core'!G92</f>
@@ -47069,7 +47069,7 @@
       </c>
       <c r="L92" s="1">
         <f ca="1">VarexJ!F92</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M92" s="2">
         <f ca="1">'JPF-Core'!F92</f>
@@ -47114,7 +47114,7 @@
       </c>
       <c r="H93" s="1">
         <f ca="1">VarexJ!G93</f>
-        <v>447.5</v>
+        <v>661</v>
       </c>
       <c r="I93" s="2">
         <f ca="1">'JPF-Core'!G93</f>
@@ -47130,7 +47130,7 @@
       </c>
       <c r="L93" s="1">
         <f ca="1">VarexJ!F93</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M93" s="2">
         <f ca="1">'JPF-Core'!F93</f>
@@ -47175,7 +47175,7 @@
       </c>
       <c r="H94" s="1">
         <f ca="1">VarexJ!G94</f>
-        <v>451</v>
+        <v>668</v>
       </c>
       <c r="I94" s="2">
         <f ca="1">'JPF-Core'!G94</f>
@@ -47191,7 +47191,7 @@
       </c>
       <c r="L94" s="1">
         <f ca="1">VarexJ!F94</f>
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M94" s="2">
         <f ca="1">'JPF-Core'!F94</f>
@@ -47236,7 +47236,7 @@
       </c>
       <c r="H95" s="1">
         <f ca="1">VarexJ!G95</f>
-        <v>458</v>
+        <v>675</v>
       </c>
       <c r="I95" s="2">
         <f ca="1">'JPF-Core'!G95</f>
@@ -47252,7 +47252,7 @@
       </c>
       <c r="L95" s="1">
         <f ca="1">VarexJ!F95</f>
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M95" s="2">
         <f ca="1">'JPF-Core'!F95</f>
@@ -47297,7 +47297,7 @@
       </c>
       <c r="H96" s="1">
         <f ca="1">VarexJ!G96</f>
-        <v>461.5</v>
+        <v>682</v>
       </c>
       <c r="I96" s="2">
         <f ca="1">'JPF-Core'!G96</f>
@@ -47313,7 +47313,7 @@
       </c>
       <c r="L96" s="1">
         <f ca="1">VarexJ!F96</f>
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M96" s="2">
         <f ca="1">'JPF-Core'!F96</f>
@@ -47358,7 +47358,7 @@
       </c>
       <c r="H97" s="1">
         <f ca="1">VarexJ!G97</f>
-        <v>465</v>
+        <v>689</v>
       </c>
       <c r="I97" s="2">
         <f ca="1">'JPF-Core'!G97</f>
@@ -47374,7 +47374,7 @@
       </c>
       <c r="L97" s="1">
         <f ca="1">VarexJ!F97</f>
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M97" s="2">
         <f ca="1">'JPF-Core'!F97</f>
@@ -47419,7 +47419,7 @@
       </c>
       <c r="H98" s="1">
         <f ca="1">VarexJ!G98</f>
-        <v>472</v>
+        <v>696</v>
       </c>
       <c r="I98" s="2">
         <f ca="1">'JPF-Core'!G98</f>
@@ -47435,7 +47435,7 @@
       </c>
       <c r="L98" s="1">
         <f ca="1">VarexJ!F98</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M98" s="2">
         <f ca="1">'JPF-Core'!F98</f>
@@ -47480,7 +47480,7 @@
       </c>
       <c r="H99" s="1">
         <f ca="1">VarexJ!G99</f>
-        <v>475.5</v>
+        <v>703</v>
       </c>
       <c r="I99" s="2">
         <f ca="1">'JPF-Core'!G99</f>
@@ -47496,7 +47496,7 @@
       </c>
       <c r="L99" s="1">
         <f ca="1">VarexJ!F99</f>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M99" s="2">
         <f ca="1">'JPF-Core'!F99</f>
@@ -47541,7 +47541,7 @@
       </c>
       <c r="H100" s="1">
         <f ca="1">VarexJ!G100</f>
-        <v>479</v>
+        <v>710</v>
       </c>
       <c r="I100" s="2">
         <f ca="1">'JPF-Core'!G100</f>
@@ -47557,7 +47557,7 @@
       </c>
       <c r="L100" s="1">
         <f ca="1">VarexJ!F100</f>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M100" s="2">
         <f ca="1">'JPF-Core'!F100</f>
@@ -47602,7 +47602,7 @@
       </c>
       <c r="H101" s="1">
         <f ca="1">VarexJ!G101</f>
-        <v>486</v>
+        <v>717</v>
       </c>
       <c r="I101" s="2">
         <f ca="1">'JPF-Core'!G101</f>
@@ -47618,7 +47618,7 @@
       </c>
       <c r="L101" s="1">
         <f ca="1">VarexJ!F101</f>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M101" s="2">
         <f ca="1">'JPF-Core'!F101</f>
@@ -47663,7 +47663,7 @@
       </c>
       <c r="H102" s="1">
         <f ca="1">VarexJ!G102</f>
-        <v>489.5</v>
+        <v>724</v>
       </c>
       <c r="I102" s="2">
         <f ca="1">'JPF-Core'!G102</f>
@@ -47679,7 +47679,7 @@
       </c>
       <c r="L102" s="1">
         <f ca="1">VarexJ!F102</f>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M102" s="2">
         <f ca="1">'JPF-Core'!F102</f>
